--- a/biology/Botanique/Castel_del_Monte_(vin)/Castel_del_Monte_(vin).xlsx
+++ b/biology/Botanique/Castel_del_Monte_(vin)/Castel_del_Monte_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Castel del Monte est un vin italien rouge ou blanc de la région des Pouilles.
 L’appellation d'origine contrôlée Castel del Monte doit son nom au château construit par Frédéric II sur une montagne dans le Parc National d'Alta Murgia, sur le territoire d’Andria.
